--- a/calcs.xlsx
+++ b/calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solst\Desktop\Vietnam gas project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E6B89C-2C87-4F64-9061-0598A014DCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F9307-3E9C-4D66-9C24-23F12E5DE331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="1180" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>2024 Gas GEN</t>
   </si>
@@ -107,22 +107,13 @@
     <t>Combining gem installed cap data with EVN data for gas gen</t>
   </si>
   <si>
-    <t>EVN data provides the most accurate and reliable data for calculating the capacity factor for gas in vietnam (42.751%)</t>
-  </si>
-  <si>
-    <t>However, I cant back this data up with generators</t>
-  </si>
-  <si>
-    <t>So, I think the best way to go forward is use the value for installed cap from gem and the EVN value for total gas generation 2023 - gives a capacity factor 31.27% which is probably as good as im going to get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No in fact -- I am going to take the EVN capacity factor of 42.75% to estimate across all the GEM plants. </t>
-  </si>
-  <si>
-    <t>Now I can apply E=MF*SIY*CF to estimate tons/year emissions from each plant</t>
-  </si>
-  <si>
     <t>Total MW installed cap (gem)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>System avg capacity factor for gas = 42.75%</t>
   </si>
 </sst>
 </file>
@@ -130,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -375,7 +366,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -386,12 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -412,16 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +457,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,17 +487,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,6 +511,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>165658</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187F5166-781E-8CA8-41ED-BBCCBA5B1E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10937875" y="2222500"/>
+          <a:ext cx="11929033" cy="7151641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,26 +843,26 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="G2" s="43" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
@@ -842,7 +881,7 @@
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -915,11 +954,11 @@
         <f>H6/(H7*8760)</f>
         <v>0.42750758481198858</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>9770</v>
@@ -933,12 +972,12 @@
         <f>H8*100</f>
         <v>42.750758481198858</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="13">
@@ -947,15 +986,15 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22">
         <f>C10*100</f>
         <v>23.251683702322364</v>
       </c>
@@ -968,50 +1007,43 @@
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:9" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="50" t="s">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="G14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="G14" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="G15" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="29" t="s">
+      <c r="E15" s="38"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="25">
         <v>9770</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="G16" s="41" t="s">
-        <v>25</v>
-      </c>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
@@ -1020,57 +1052,50 @@
       <c r="C17" s="1">
         <v>26784</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="G17" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <f>C17*1000</f>
         <v>26784000</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="30">
         <f>C18/(C16*8765.8)</f>
         <v>0.31274423656299127</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="28"/>
-      <c r="G19" s="19"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33">
         <f>C19*100</f>
         <v>31.274423656299128</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G22" s="20"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1084,5 +1109,6 @@
     <hyperlink ref="B14:E14" r:id="rId3" display="Combining gem installed cap data with EVN data for gas gen" xr:uid="{76F58DFC-8191-4E99-8C37-D98901060DE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>